--- a/data/file_testcase/login.xlsx
+++ b/data/file_testcase/login.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF8883B-38F2-4D40-89DA-A524859323F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="重命名" sheetId="1" r:id="rId1"/>
@@ -77,23 +78,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1..0.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>66+6+6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>靠靠靠靠靠靠靠靠靠靠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ppppppp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,7 +153,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -227,6 +228,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -262,6 +280,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -437,20 +472,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="5" max="5" width="14.625" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -473,7 +508,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -484,7 +519,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -495,7 +530,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -506,18 +541,18 @@
         <v>755668</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="75.75" customHeight="1">
+    <row r="5" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -525,10 +560,10 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -539,7 +574,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -550,7 +585,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -561,7 +596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -572,7 +607,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -583,15 +618,26 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>123</v>
+      </c>
+      <c r="E13">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -602,16 +648,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
